--- a/10/technical_designs.xlsx
+++ b/10/technical_designs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
   <si>
     <t>◆ログイン機能仕様</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>3)ログインページへ遷移</t>
+  </si>
+  <si>
+    <t>6.マイページを選択した場合</t>
+  </si>
+  <si>
+    <t>セッションの会員ＩＤをＧＥＴパラメータとして生成したリンクに遷移する</t>
   </si>
   <si>
     <t>◆ログイン・未ログイン判定仕様</t>
@@ -612,7 +618,7 @@
     <xdr:ext cx="5505450" cy="4991100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -645,7 +651,7 @@
     <xdr:ext cx="6810375" cy="6048375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -704,14 +710,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>-142875</xdr:rowOff>
+      <xdr:rowOff>-47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8201025" cy="5372100"/>
+    <xdr:ext cx="8277225" cy="5324475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -744,7 +750,7 @@
     <xdr:ext cx="4448175" cy="4876800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1897,16 +1903,40 @@
       <c r="A62" s="1"/>
     </row>
     <row r="63">
-      <c r="A63" s="1"/>
+      <c r="A63" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1"/>
+      <c r="A65" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="1"/>
+      <c r="A66" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
@@ -1921,12 +1951,9 @@
       <c r="A70" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C39:D39"/>
@@ -1940,6 +1967,15 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1957,7 +1993,7 @@
   <sheetData>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -1980,7 +2016,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -1990,17 +2026,17 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="3" t="s">
@@ -2050,22 +2086,22 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
